--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2218.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2218.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9624312937180241</v>
+        <v>0.9520253539085388</v>
       </c>
       <c r="B1">
-        <v>1.311774891474958</v>
+        <v>2.08130145072937</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.01541805267334</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.42518949508667</v>
       </c>
       <c r="E1">
-        <v>1.003058146573609</v>
+        <v>0.776460587978363</v>
       </c>
     </row>
   </sheetData>
